--- a/bots/crawl_ch/output/toilet_coop_2022-08-10.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-10.xlsx
@@ -531,36 +531,36 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -569,115 +569,115 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -896,137 +896,137 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>4x 60ST</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.03/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1907,123 +1907,121 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>6870057</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Kleenex Original 4x72 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-original-4x72-stueck/p/6870057</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+          <t>288ST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>1.68/100ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Stück</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Kleenex Original 4x72 Stück 32% Aktion 4.85 Schweizer Franken statt 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2033,7 +2031,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2043,39 +2041,39 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>90ST</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2086,17 +2084,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.18/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2106,7 +2104,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2116,110 +2114,112 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6870057</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kleenex Original 4x72 Stück</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-original-4x72-stueck/p/6870057</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>288ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.68/100ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Preis pro 100 Stück</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kleenex Original 4x72 Stück 32% Aktion 4.85 Schweizer Franken statt 7.20 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6865139</t>
+          <t>6870058</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück</t>
+          <t>Kleenex Ultrasoft Würfel 4x48 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft-wuerfel-4x48-stueck/p/6870058</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>224ST</t>
+          <t>192ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2233,64 +2233,64 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>3.31/100ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Stück</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
+          <t>Kleenex Ultrasoft Würfel 4x48 Stück 32% Aktion 6.35 Schweizer Franken statt 9.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6870058</t>
+          <t>6865139</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft Würfel 4x48 Stück</t>
+          <t>Kleenex Balsam Box 4x56 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft-wuerfel-4x48-stueck/p/6870058</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>192ST</t>
+          <t>224ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2304,42 +2304,42 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.31/100ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 100 Stück</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft Würfel 4x48 Stück 32% Aktion 6.35 Schweizer Franken statt 9.40 Schweizer Franken</t>
+          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2412,123 +2412,121 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3650495</t>
+          <t>6995916</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
+          <t>Tela Viva Haushaltspapier, 16 Rollen, FSC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-16-rollen-fsc/p/6995916</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+          <t>16Rol</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.74/1Rol</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier, 16 Rollen, FSC 50% Aktion 11.90 Schweizer Franken statt 23.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>3650495</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2538,7 +2536,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2553,89 +2551,107 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6995916</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier, 16 Rollen, FSC</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-16-rollen-fsc/p/6995916</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2649,29 +2665,13 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.74/1Rol</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier, 16 Rollen, FSC 50% Aktion 11.90 Schweizer Franken statt 23.80 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-10 07:02:41</t>
+          <t>2022-08-10 20:57:24</t>
         </is>
       </c>
     </row>
